--- a/Output/1968/Idaho-Kansas/Idaho-Kansas.xlsx
+++ b/Output/1968/Idaho-Kansas/Idaho-Kansas.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yunhao/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SanDisk/Cable/Output/1968/Idaho-Kansas/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="17040" xr2:uid="{8B156D7D-5ADF-4043-B891-EA87CD7E0CC3}"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="17040" activeTab="4" xr2:uid="{8B156D7D-5ADF-4043-B891-EA87CD7E0CC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Idaho" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4093" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="532">
   <si>
     <t>Name</t>
   </si>
@@ -1999,7 +1999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947D48B2-D322-C54F-BA23-4F3C64FEBE77}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -3672,8 +3672,8 @@
       <c r="B55">
         <v>0</v>
       </c>
-      <c r="D55" t="s">
-        <v>15</v>
+      <c r="D55" s="1">
+        <v>20126</v>
       </c>
       <c r="E55" s="2">
         <v>21374</v>
@@ -15854,8 +15854,8 @@
       <c r="D25" s="1">
         <v>3300</v>
       </c>
-      <c r="E25" t="s">
-        <v>15</v>
+      <c r="E25" s="3">
+        <v>24898</v>
       </c>
       <c r="F25" t="s">
         <v>15</v>
@@ -16915,7 +16915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8D03A3-5CCB-8F41-8BDF-3E20DBAC30B0}">
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
